--- a/AGuerrero.TrabajoFinal.DeepSpaceD6/Base de datos de cartas.xlsx
+++ b/AGuerrero.TrabajoFinal.DeepSpaceD6/Base de datos de cartas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FP\CENEC\1er año\Programacion\Nuevos Workspaces\ProgramacionEclipse\AGuerrero.TrabajoFinal.DeepSpaceD6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D3E4AD-5C4A-46C7-9CED-C4965B728A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB451EA-F3FB-45B6-BA7A-6AB57F773275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -784,11 +784,17 @@
       <c r="D15">
         <v>0</v>
       </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -807,6 +813,9 @@
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -847,6 +856,9 @@
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -858,6 +870,9 @@
       <c r="D19">
         <v>2</v>
       </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
       <c r="F19">
         <v>0</v>
       </c>
@@ -879,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -910,6 +925,9 @@
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -930,6 +948,9 @@
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -950,6 +971,9 @@
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -970,6 +994,9 @@
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -990,6 +1017,9 @@
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -1009,6 +1039,9 @@
       </c>
       <c r="G26">
         <v>1</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
